--- a/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 5 (43, 19, 11, 17, 31)/Ableson 1 (7, 32, 40, 15, 34)/NCDE_32nodes_Uniform0.05Virtual_Nelson(43, 19, 11, 17, 31)_Ableson(7, 32, 40, 15, 34)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 5 (43, 19, 11, 17, 31)/Ableson 1 (7, 32, 40, 15, 34)/NCDE_32nodes_Uniform0.05Virtual_Nelson(43, 19, 11, 17, 31)_Ableson(7, 32, 40, 15, 34)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.06632991889861374</v>
+        <v>0.06631325354785259</v>
       </c>
       <c r="E2">
-        <v>0.06632991889861374</v>
+        <v>0.06631325354785259</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.0005169925198596555</v>
+        <v>0.0005176182402187505</v>
       </c>
       <c r="E3">
-        <v>0.0005169925198596555</v>
+        <v>0.0005176182402187505</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.9766330792774853</v>
+        <v>0.9767506921254677</v>
       </c>
       <c r="E4">
-        <v>0.9766330792774853</v>
+        <v>0.9767506921254677</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>5.750927701421154E-05</v>
+        <v>5.753766652052312E-05</v>
       </c>
       <c r="E5">
-        <v>5.750927701421154E-05</v>
+        <v>5.753766652052312E-05</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.03898971816663226</v>
+        <v>0.0395370218682276</v>
       </c>
       <c r="E6">
-        <v>0.03898971816663226</v>
+        <v>0.0395370218682276</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9974897960066323</v>
+        <v>0.9773565464416615</v>
       </c>
       <c r="E7">
-        <v>0.002510203993367655</v>
+        <v>0.02264345355833852</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -537,13 +537,13 @@
         <v>12</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.9976196046100546</v>
+        <v>1.75047130808624E-08</v>
       </c>
       <c r="E8">
-        <v>0.002380395389945389</v>
+        <v>0.9999999824952869</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -551,13 +551,13 @@
         <v>13</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.9969480307420214</v>
+        <v>1.02578954508364E-14</v>
       </c>
       <c r="E9">
-        <v>0.003051969257978571</v>
+        <v>0.9999999999999898</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -565,13 +565,13 @@
         <v>14</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.9970612701957322</v>
+        <v>8.083883234871182E-08</v>
       </c>
       <c r="E10">
-        <v>0.002938729804267792</v>
+        <v>0.9999999191611677</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -579,19 +579,19 @@
         <v>15</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.9972931001344891</v>
+        <v>0.07603773225776467</v>
       </c>
       <c r="E11">
-        <v>0.00270689986551087</v>
+        <v>0.9239622677422353</v>
       </c>
       <c r="F11">
-        <v>0.3879017531871796</v>
+        <v>7.287277221679688</v>
       </c>
       <c r="G11">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -605,10 +605,10 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>0.05291585962267916</v>
+        <v>0.05291952315915446</v>
       </c>
       <c r="E12">
-        <v>0.05291585962267916</v>
+        <v>0.05291952315915446</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -619,10 +619,10 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>0.0007987024901595824</v>
+        <v>0.0008039404600372358</v>
       </c>
       <c r="E13">
-        <v>0.0007987024901595824</v>
+        <v>0.0008039404600372358</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.9987649181346173</v>
+        <v>0.9987484147992824</v>
       </c>
       <c r="E14">
-        <v>0.9987649181346173</v>
+        <v>0.9987484147992824</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -647,10 +647,10 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>1.013276601337134E-05</v>
+        <v>1.016026132827289E-05</v>
       </c>
       <c r="E15">
-        <v>1.013276601337134E-05</v>
+        <v>1.016026132827289E-05</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -661,10 +661,10 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>0.0101213254185904</v>
+        <v>0.009859497460229901</v>
       </c>
       <c r="E16">
-        <v>0.0101213254185904</v>
+        <v>0.009859497460229901</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -675,10 +675,10 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>0.9998416150235142</v>
+        <v>0.9956815709578656</v>
       </c>
       <c r="E17">
-        <v>0.0001583849764857925</v>
+        <v>0.00431842904213442</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -686,13 +686,13 @@
         <v>12</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0.9998500981462625</v>
+        <v>3.026116525208176E-10</v>
       </c>
       <c r="E18">
-        <v>0.000149901853737533</v>
+        <v>0.9999999996973884</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -700,13 +700,13 @@
         <v>13</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0.9998306579744092</v>
+        <v>4.963012513862474E-20</v>
       </c>
       <c r="E19">
-        <v>0.000169342025590824</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -714,13 +714,13 @@
         <v>14</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0.9998374209139611</v>
+        <v>1.144764449829875E-09</v>
       </c>
       <c r="E20">
-        <v>0.0001625790860388943</v>
+        <v>0.9999999988552356</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -728,19 +728,19 @@
         <v>15</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>0.9998458160695906</v>
+        <v>0.005976142633226013</v>
       </c>
       <c r="E21">
-        <v>0.0001541839304094461</v>
+        <v>0.994023857366774</v>
       </c>
       <c r="F21">
-        <v>0.6762761473655701</v>
+        <v>9.882906913757324</v>
       </c>
       <c r="G21">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
